--- a/example/Chapter13_Example.xlsx
+++ b/example/Chapter13_Example.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11114"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JHK\Google 드라이브\KHU\Lecture\IE208 응용통계학\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/doubleseat/applied_statistics/example/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8DEAF6-D793-D347-BF6D-A43CCCBC2070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="14000" windowHeight="9630" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Electricity" sheetId="1" r:id="rId1"/>
     <sheet name="Electricity_empty" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -217,8 +229,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,7 +544,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -564,7 +576,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -602,7 +620,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -640,7 +664,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -678,7 +708,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -716,7 +752,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -754,7 +796,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -792,7 +840,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -835,7 +889,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -873,7 +933,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -911,7 +977,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -949,7 +1021,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -987,7 +1065,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1025,7 +1109,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1063,7 +1153,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7"/>
+        <xdr:cNvPr id="8" name="Picture 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1090,7 +1186,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1165,6 +1261,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1200,6 +1313,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1375,21 +1505,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L92"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="I66" sqref="I66"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O34" sqref="O34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
     <col min="6" max="6" width="9.83203125" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -1401,7 +1531,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1465,7 +1595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1494,7 +1624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1523,7 +1653,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1552,7 +1682,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1581,7 +1711,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1610,7 +1740,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1639,7 +1769,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1668,7 +1798,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1697,7 +1827,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1726,7 +1856,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -1755,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12">
       <c r="F15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1770,7 +1900,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12">
       <c r="G16">
         <v>58.62</v>
       </c>
@@ -1781,7 +1911,7 @@
         <v>7862.87</v>
       </c>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:9">
       <c r="G17">
         <v>1484</v>
       </c>
@@ -1792,7 +1922,7 @@
         <v>392028</v>
       </c>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:9">
       <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
@@ -1807,7 +1937,7 @@
         <v>3.7444847412548506E-3</v>
       </c>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:9">
       <c r="G20">
         <v>-1.4741197634181067</v>
       </c>
@@ -1818,7 +1948,7 @@
         <v>-9.5940819487917034E-4</v>
       </c>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:9">
       <c r="G21">
         <v>3.7444847412548524E-3</v>
       </c>
@@ -1829,7 +1959,7 @@
         <v>7.6190643455247684E-6</v>
       </c>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:9">
       <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
@@ -1838,17 +1968,17 @@
         <v>34.150000000000006</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:9">
       <c r="G24">
         <v>169.25319999999999</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:9">
       <c r="G25">
         <v>4685.0599999999995</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:9">
       <c r="F27" s="10" t="s">
         <v>20</v>
       </c>
@@ -1857,17 +1987,17 @@
         <v>0.99242426885078316</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:9">
       <c r="G28">
         <v>0.34935807676834418</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:9">
       <c r="G29">
         <v>1.1870204269742585E-3</v>
       </c>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:9">
       <c r="F31" s="10" t="s">
         <v>49</v>
       </c>
@@ -1876,62 +2006,62 @@
         <v>2.5680291950760155</v>
       </c>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:9">
       <c r="G32">
         <v>2.2431261836814551</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:7">
       <c r="G33">
         <v>2.513588845273012</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:7">
       <c r="G34">
         <v>2.8266492812091633</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:7">
       <c r="G35">
         <v>3.1016852117802327</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:7">
       <c r="G36">
         <v>3.0989493225789437</v>
       </c>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:7">
       <c r="G37">
         <v>3.2654818078121082</v>
       </c>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:7">
       <c r="G38">
         <v>3.420898597311735</v>
       </c>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:7">
       <c r="G39">
         <v>2.8563800495061873</v>
       </c>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:7">
       <c r="G40">
         <v>3.0639029996567744</v>
       </c>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:7">
       <c r="G41">
         <v>2.7315803148360778</v>
       </c>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:7">
       <c r="G42">
         <v>2.4597281912778288</v>
       </c>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:7">
       <c r="F44" s="10" t="s">
         <v>21</v>
       </c>
@@ -1940,62 +2070,62 @@
         <v>-8.8029195076015476E-2</v>
       </c>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:7">
       <c r="G45">
         <v>1.6873816318544677E-2</v>
       </c>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:7">
       <c r="G46">
         <v>-4.3588845273011767E-2</v>
       </c>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:7">
       <c r="G47">
         <v>-5.6649281209163238E-2</v>
       </c>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:7">
       <c r="G48">
         <v>-0.1116852117802325</v>
       </c>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:8">
       <c r="G49">
         <v>-4.894932257894391E-2</v>
       </c>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:8">
       <c r="G50">
         <v>-8.5481807812108013E-2</v>
       </c>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:8">
       <c r="G51">
         <v>3.9101402688265008E-2</v>
       </c>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:8">
       <c r="G52">
         <v>0.17361995049381251</v>
       </c>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:8">
       <c r="G53">
         <v>0.19609700034322541</v>
       </c>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:8">
       <c r="G54">
         <v>-6.1580314836077843E-2</v>
       </c>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:8">
       <c r="G55">
         <v>7.0271808722170981E-2</v>
       </c>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:8">
       <c r="F57" s="10" t="s">
         <v>22</v>
       </c>
@@ -2007,7 +2137,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="59" spans="6:8">
       <c r="F59" s="10" t="s">
         <v>53</v>
       </c>
@@ -2016,7 +2146,7 @@
         <v>0.11417685825646222</v>
       </c>
     </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="60" spans="6:8">
       <c r="F60" s="10" t="s">
         <v>54</v>
       </c>
@@ -2025,7 +2155,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:8">
       <c r="F61" s="10" t="s">
         <v>52</v>
       </c>
@@ -2034,7 +2164,7 @@
         <v>1.2686317584051358E-2</v>
       </c>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:8">
       <c r="F62" s="10" t="s">
         <v>51</v>
       </c>
@@ -2043,7 +2173,7 @@
         <v>0.11263355443228877</v>
       </c>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:8">
       <c r="F64" s="10" t="s">
         <v>55</v>
       </c>
@@ -2052,7 +2182,7 @@
         <v>6.4314896105366615E-2</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7">
       <c r="F65" s="10" t="s">
         <v>57</v>
       </c>
@@ -2061,7 +2191,7 @@
         <v>5.4319931761375075</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:7">
       <c r="F67" s="10" t="s">
         <v>56</v>
       </c>
@@ -2070,7 +2200,7 @@
         <v>3.1089848822509511E-4</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:7">
       <c r="F68" s="10" t="s">
         <v>57</v>
       </c>
@@ -2079,23 +2209,23 @@
         <v>3.8180321614006631</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7">
       <c r="B71" t="s">
         <v>23</v>
       </c>
       <c r="F71"/>
     </row>
-    <row r="72" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="72" spans="2:7" ht="18" thickBot="1">
       <c r="F72"/>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7">
       <c r="B73" s="14" t="s">
         <v>24</v>
       </c>
       <c r="C73" s="14"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:7">
       <c r="B74" s="11" t="s">
         <v>25</v>
       </c>
@@ -2104,7 +2234,7 @@
       </c>
       <c r="F74"/>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:7">
       <c r="B75" s="11" t="s">
         <v>26</v>
       </c>
@@ -2113,7 +2243,7 @@
       </c>
       <c r="F75"/>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:7">
       <c r="B76" s="11" t="s">
         <v>27</v>
       </c>
@@ -2122,7 +2252,7 @@
       </c>
       <c r="F76"/>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7">
       <c r="B77" s="11" t="s">
         <v>28</v>
       </c>
@@ -2131,7 +2261,7 @@
       </c>
       <c r="F77"/>
     </row>
-    <row r="78" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="78" spans="2:7" ht="18" thickBot="1">
       <c r="B78" s="12" t="s">
         <v>29</v>
       </c>
@@ -2140,16 +2270,16 @@
       </c>
       <c r="F78"/>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7">
       <c r="F79"/>
     </row>
-    <row r="80" spans="2:7" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="80" spans="2:7" ht="18" thickBot="1">
       <c r="B80" t="s">
         <v>30</v>
       </c>
       <c r="F80"/>
     </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:10">
       <c r="B81" s="13"/>
       <c r="C81" s="13" t="s">
         <v>35</v>
@@ -2167,7 +2297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:10">
       <c r="B82" s="11" t="s">
         <v>31</v>
       </c>
@@ -2187,7 +2317,7 @@
         <v>8.9490202664542763E-6</v>
       </c>
     </row>
-    <row r="83" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:10">
       <c r="B83" s="11" t="s">
         <v>32</v>
       </c>
@@ -2203,7 +2333,7 @@
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
     </row>
-    <row r="84" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="84" spans="2:10" ht="18" thickBot="1">
       <c r="B84" s="12" t="s">
         <v>33</v>
       </c>
@@ -2217,10 +2347,10 @@
       <c r="F84" s="12"/>
       <c r="G84" s="12"/>
     </row>
-    <row r="85" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="85" spans="2:10" ht="18" thickBot="1">
       <c r="F85"/>
     </row>
-    <row r="86" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:10">
       <c r="B86" s="13"/>
       <c r="C86" s="13" t="s">
         <v>40</v>
@@ -2247,7 +2377,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="87" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:10">
       <c r="B87" s="11" t="s">
         <v>34</v>
       </c>
@@ -2276,7 +2406,7 @@
         <v>1.6578895861760918</v>
       </c>
     </row>
-    <row r="88" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:10">
       <c r="B88" s="11" t="s">
         <v>47</v>
       </c>
@@ -2305,7 +2435,7 @@
         <v>0.49484847966774376</v>
       </c>
     </row>
-    <row r="89" spans="2:10" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="89" spans="2:10" ht="18" thickBot="1">
       <c r="B89" s="12" t="s">
         <v>48</v>
       </c>
@@ -2334,13 +2464,13 @@
         <v>1.8903216690157544E-3</v>
       </c>
     </row>
-    <row r="90" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:10">
       <c r="F90"/>
     </row>
-    <row r="91" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:10">
       <c r="F91"/>
     </row>
-    <row r="92" spans="2:10" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:10">
       <c r="F92"/>
     </row>
   </sheetData>
@@ -2351,21 +2481,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <cols>
-    <col min="6" max="6" width="10.4140625" style="10" customWidth="1"/>
-    <col min="7" max="8" width="9.08203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" style="10" customWidth="1"/>
+    <col min="7" max="8" width="9" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12">
       <c r="A1" s="5"/>
       <c r="B1" s="6" t="s">
         <v>12</v>
@@ -2377,7 +2507,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -2401,7 +2531,7 @@
       <c r="K2" s="19"/>
       <c r="L2" s="20"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -2419,7 +2549,7 @@
       <c r="K3" s="22"/>
       <c r="L3" s="23"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2567,7 @@
       <c r="K4" s="22"/>
       <c r="L4" s="23"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -2455,7 +2585,7 @@
       <c r="K5" s="22"/>
       <c r="L5" s="23"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -2473,7 +2603,7 @@
       <c r="K6" s="22"/>
       <c r="L6" s="23"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -2491,7 +2621,7 @@
       <c r="K7" s="22"/>
       <c r="L7" s="23"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -2509,7 +2639,7 @@
       <c r="K8" s="22"/>
       <c r="L8" s="23"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -2527,7 +2657,7 @@
       <c r="K9" s="22"/>
       <c r="L9" s="23"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -2545,7 +2675,7 @@
       <c r="K10" s="22"/>
       <c r="L10" s="23"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -2563,7 +2693,7 @@
       <c r="K11" s="22"/>
       <c r="L11" s="23"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -2581,7 +2711,7 @@
       <c r="K12" s="22"/>
       <c r="L12" s="23"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:12">
       <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
@@ -2599,7 +2729,7 @@
       <c r="K13" s="25"/>
       <c r="L13" s="26"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:12">
       <c r="F15" s="10" t="s">
         <v>17</v>
       </c>
@@ -2607,17 +2737,17 @@
       <c r="H15" s="19"/>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:12">
       <c r="G16" s="21"/>
       <c r="H16" s="22"/>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="6:9">
       <c r="G17" s="24"/>
       <c r="H17" s="25"/>
       <c r="I17" s="26"/>
     </row>
-    <row r="19" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="6:9">
       <c r="F19" s="10" t="s">
         <v>18</v>
       </c>
@@ -2625,119 +2755,119 @@
       <c r="H19" s="19"/>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="6:9">
       <c r="G20" s="21"/>
       <c r="H20" s="22"/>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="6:9">
       <c r="G21" s="24"/>
       <c r="H21" s="25"/>
       <c r="I21" s="26"/>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="6:9">
       <c r="F23" s="10" t="s">
         <v>19</v>
       </c>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="6:9">
       <c r="G24" s="16"/>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="6:9">
       <c r="G25" s="17"/>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="6:9">
       <c r="F27" s="10" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="28"/>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="6:9">
       <c r="G28" s="29"/>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="6:9">
       <c r="G29" s="30"/>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="6:9">
       <c r="F31" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="6:9">
       <c r="G32" s="16"/>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="6:7">
       <c r="G33" s="16"/>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="6:7">
       <c r="G34" s="16"/>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="6:7">
       <c r="G35" s="16"/>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="6:7">
       <c r="G36" s="16"/>
     </row>
-    <row r="37" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="6:7">
       <c r="G37" s="16"/>
     </row>
-    <row r="38" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="6:7">
       <c r="G38" s="16"/>
     </row>
-    <row r="39" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="6:7">
       <c r="G39" s="16"/>
     </row>
-    <row r="40" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="6:7">
       <c r="G40" s="16"/>
     </row>
-    <row r="41" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="6:7">
       <c r="G41" s="16"/>
     </row>
-    <row r="42" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="6:7">
       <c r="G42" s="17"/>
     </row>
-    <row r="44" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="6:7">
       <c r="F44" s="10" t="s">
         <v>21</v>
       </c>
       <c r="G44" s="15"/>
     </row>
-    <row r="45" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="6:7">
       <c r="G45" s="16"/>
     </row>
-    <row r="46" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="6:7">
       <c r="G46" s="16"/>
     </row>
-    <row r="47" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="6:7">
       <c r="G47" s="16"/>
     </row>
-    <row r="48" spans="6:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="6:7">
       <c r="G48" s="16"/>
     </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="6:8">
       <c r="G49" s="16"/>
     </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="6:8">
       <c r="G50" s="16"/>
     </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="6:8">
       <c r="G51" s="16"/>
     </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="52" spans="6:8">
       <c r="G52" s="16"/>
     </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="53" spans="6:8">
       <c r="G53" s="16"/>
     </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="54" spans="6:8">
       <c r="G54" s="16"/>
     </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="55" spans="6:8">
       <c r="G55" s="17"/>
     </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="57" spans="6:8">
       <c r="F57" s="10" t="s">
         <v>22</v>
       </c>
@@ -2746,42 +2876,42 @@
         <v>50</v>
       </c>
     </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="61" spans="6:8">
       <c r="F61" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="62" spans="6:8">
       <c r="F62" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="63" spans="6:8">
       <c r="F63" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.45">
+    <row r="64" spans="6:8">
       <c r="F64" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="66" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="6:6">
       <c r="F66" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="6:6">
       <c r="F67" s="10" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="6:6">
       <c r="F69" s="10" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="70" spans="6:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="6:6">
       <c r="F70" s="10" t="s">
         <v>57</v>
       </c>
